--- a/1. Doble Rendija/Data/DobleRendija.xlsx
+++ b/1. Doble Rendija/Data/DobleRendija.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Universidad\SEMESTREVI\INTERMEDIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\1. Doble Rendija\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1ECF2-2CBD-4191-9E08-19D55146C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3169ADB1-BDB1-49EE-89BE-C584B9F44F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A700D731-B524-45AC-9731-DBF0EE880EE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A700D731-B524-45AC-9731-DBF0EE880EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3089,7 +3089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1188420416"/>
@@ -3151,7 +3151,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1188427616"/>
@@ -3199,7 +3199,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3213,7 +3213,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3250,7 +3250,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3631,7 +3631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064322016"/>
@@ -3693,7 +3693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064333536"/>
@@ -3741,7 +3741,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3755,7 +3755,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3792,7 +3792,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4168,7 +4168,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285485040"/>
@@ -4230,7 +4230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285480240"/>
@@ -4278,7 +4278,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4292,7 +4292,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4329,7 +4329,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4674,7 +4674,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302754319"/>
@@ -4736,7 +4736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302752879"/>
@@ -4784,7 +4784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4798,7 +4798,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5159,7 +5159,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302754319"/>
@@ -5221,7 +5221,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302752879"/>
@@ -5269,7 +5269,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5283,7 +5283,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7810,7 +7810,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302754319"/>
@@ -7872,7 +7872,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302752879"/>
@@ -7920,7 +7920,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11493,7 +11493,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11811,11 +11811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88062E60-A81F-4F1D-A42A-B205A9BEA621}">
   <dimension ref="A1:BC519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BF320" sqref="BF320"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="55" max="55" width="11.7109375" bestFit="1" customWidth="1"/>
